--- a/data/tests/stl_seasonality.xlsx
+++ b/data/tests/stl_seasonality.xlsx
@@ -1,35 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0881881a0a4a5542/AI 2nd Year/Thesis/Thesis Code/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0881881a0a4a5542/Documenten/GitHub/Crypto_Forecasting/data/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="518" documentId="11_760D95855B40DC5533D92211595ED87656CDF8FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DB44DD3-C070-4E9E-8B90-739C08A64A32}"/>
+  <xr:revisionPtr revIDLastSave="519" documentId="11_760D95855B40DC5533D92211595ED87656CDF8FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F690474-2311-43BF-AB26-CE407CA52D29}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6108" yWindow="396" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId6"/>
-    <pivotCache cacheId="11" r:id="rId7"/>
-    <pivotCache cacheId="12" r:id="rId8"/>
+    <pivotCache cacheId="16" r:id="rId5"/>
+    <pivotCache cacheId="17" r:id="rId6"/>
+    <pivotCache cacheId="18" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="53">
   <si>
     <t>coin</t>
   </si>
@@ -5851,7 +5850,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B2C0732-51BA-4F48-8178-3BFD02DC1347}" name="PivotTable15" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B2C0732-51BA-4F48-8178-3BFD02DC1347}" name="PivotTable15" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -5966,7 +5965,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D3A680C-2336-45C3-A1E2-61CF84EFD190}" name="PivotTable25" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D3A680C-2336-45C3-A1E2-61CF84EFD190}" name="PivotTable25" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -6076,7 +6075,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E99B385-8C74-4A07-9610-6F04E6197BCC}" name="PivotTable61" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E99B385-8C74-4A07-9610-6F04E6197BCC}" name="PivotTable61" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0">
@@ -6202,19 +6201,6 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{300D7139-AC9B-4188-A997-1A9DD5360A54}" name="Table1" displayName="Table1" ref="A1:D2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{300D7139-AC9B-4188-A997-1A9DD5360A54}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9AF9CD58-E17C-4484-8456-6493A46637AD}" name="coin"/>
-    <tableColumn id="2" xr3:uid="{33200D86-6F7C-4EDB-A0AB-1619F3D2BD02}" name="time"/>
-    <tableColumn id="3" xr3:uid="{6BAC806C-6766-410B-9D5D-0BE5F287B8B4}" name="freq"/>
-    <tableColumn id="4" xr3:uid="{83002393-8ED4-492D-9DA4-110392562FA3}" name="seasonal_strength"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10215,7 +10201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9D6811-A351-4127-BB58-3D4DE7BD2D92}">
   <dimension ref="A3:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -10472,45 +10458,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134258F3-3A82-41AF-9E6A-CEB5B804D727}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678BD234-B087-4B8A-BA40-BB12C88B08A7}">
   <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
